--- a/TASCore_documents/Test/Build 3/TAS_Core_Defect_Log_TAS.01.00.203_20180607_163807.xlsx
+++ b/TASCore_documents/Test/Build 3/TAS_Core_Defect_Log_TAS.01.00.203_20180607_163807.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VHAISPBRUNOL\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.Outlook\X7JX4115\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TVSInc\Desktop\MCCF TASCORE\19. Release Documents\Build 3 Rlease Lisa RTM TEL Defect Log\TASCore RTM TEL Defect Log v2_07182018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -17,14 +17,14 @@
     <sheet name="Defect Log" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Defect Log'!$A$1:$J$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Defect Log'!$A$1:$J$14</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
   <si>
     <t>Department of Veterans Affairs</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Severity</t>
   </si>
   <si>
-    <t>2 - High</t>
-  </si>
-  <si>
     <t>Closed</t>
   </si>
   <si>
@@ -80,12 +77,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>US2219: (Copy of) 508.01.02.15 Web Application Skip Navigation (1194.22O)</t>
-  </si>
-  <si>
-    <t>TC1186</t>
-  </si>
-  <si>
     <t>March 9, 2018</t>
   </si>
   <si>
@@ -161,9 +152,6 @@
     <t>3 - Medium</t>
   </si>
   <si>
-    <t>US1406: Define Layout of the MCCF EDI Home Page</t>
-  </si>
-  <si>
     <t>DE517</t>
   </si>
   <si>
@@ -212,54 +200,6 @@
     <t>02/22/2018 11:29 AM EST</t>
   </si>
   <si>
-    <t>DE552</t>
-  </si>
-  <si>
-    <t>Cannot tab-focus Return to top link</t>
-  </si>
-  <si>
-    <t>03/06/2018 08:54 AM EST</t>
-  </si>
-  <si>
-    <t>DE553</t>
-  </si>
-  <si>
-    <t>Cannot tab focus X in search box (IE only)</t>
-  </si>
-  <si>
-    <t>03/02/2018 10:23 AM EST</t>
-  </si>
-  <si>
-    <t>US2216: (Copy of) 508.01.02.12 Web Application Scripting (1194.22L-2)</t>
-  </si>
-  <si>
-    <t>03/07/2018 09:11 AM EST</t>
-  </si>
-  <si>
-    <t>DE554</t>
-  </si>
-  <si>
-    <t>'Skip to main content' link does not skip tab focus of navigation links</t>
-  </si>
-  <si>
-    <t>03/02/2018 10:48 AM EST</t>
-  </si>
-  <si>
-    <t>03/05/2018 09:01 AM EST</t>
-  </si>
-  <si>
-    <t>DE555</t>
-  </si>
-  <si>
-    <t>'Skip to main content' link removes breadcrumb location</t>
-  </si>
-  <si>
-    <t>03/02/2018 10:52 AM EST</t>
-  </si>
-  <si>
-    <t>03/05/2018 08:59 AM EST</t>
-  </si>
-  <si>
     <t>DE458</t>
   </si>
   <si>
@@ -302,9 +242,6 @@
     <t>TC2165</t>
   </si>
   <si>
-    <t>TC2177</t>
-  </si>
-  <si>
     <t>TC2516</t>
   </si>
   <si>
@@ -323,19 +260,10 @@
     <t>TC2346</t>
   </si>
   <si>
-    <t>TC2362</t>
-  </si>
-  <si>
     <t>TC2360</t>
   </si>
   <si>
     <t>TC2327</t>
-  </si>
-  <si>
-    <t>TC1492</t>
-  </si>
-  <si>
-    <t>TC1180</t>
   </si>
   <si>
     <r>
@@ -375,8 +303,29 @@
     </r>
   </si>
   <si>
+    <t>Workaround (Only for Defects being deployed to Prod, even if None is specified)</t>
+  </si>
+  <si>
+    <t>TC2172</t>
+  </si>
+  <si>
+    <t>03/07/2018 02:00 PM EST</t>
+  </si>
+  <si>
+    <t>June 18, 2018</t>
+  </si>
+  <si>
+    <t>July 17, 2018</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Lisa Bruno/Donald Fowlds</t>
+  </si>
+  <si>
     <r>
-      <t>Version 2.0</t>
+      <t>Version 3.0</t>
     </r>
     <r>
       <rPr>
@@ -390,267 +339,21 @@
     </r>
   </si>
   <si>
-    <t>TC2817</t>
-  </si>
-  <si>
-    <t>DE643</t>
-  </si>
-  <si>
-    <t>TC2818</t>
-  </si>
-  <si>
-    <t>DE644</t>
-  </si>
-  <si>
-    <t>TC2819</t>
-  </si>
-  <si>
-    <t>DE645</t>
-  </si>
-  <si>
-    <t>DE646</t>
-  </si>
-  <si>
-    <t>DE647</t>
-  </si>
-  <si>
-    <t>DE648</t>
-  </si>
-  <si>
-    <t>TC2822</t>
-  </si>
-  <si>
-    <t>DE649</t>
-  </si>
-  <si>
-    <t>TC2823</t>
-  </si>
-  <si>
-    <t>DE650</t>
-  </si>
-  <si>
-    <t>TC2824</t>
-  </si>
-  <si>
-    <t>DE651</t>
-  </si>
-  <si>
-    <t>DE652</t>
-  </si>
-  <si>
-    <t>DE733</t>
-  </si>
-  <si>
-    <t>US3581: Review New v2.0 508 compliance user stories</t>
-  </si>
-  <si>
-    <t>1 - Critical</t>
-  </si>
-  <si>
-    <t>DE720</t>
-  </si>
-  <si>
-    <t>TC1561</t>
-  </si>
-  <si>
-    <t>DE732</t>
-  </si>
-  <si>
-    <t>DE723</t>
-  </si>
-  <si>
-    <t>DE725</t>
-  </si>
-  <si>
-    <t>DE729</t>
-  </si>
-  <si>
-    <t>DE766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">508 Audit Findings - Content is not tagged properly for assistive technology users 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">508 Audit Findings - Links are not tagged properly for assistive technology users (IE  Browser) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">508 Audit Findings: Links appear as navigation links and should not be tagged as a list </t>
-  </si>
-  <si>
-    <t xml:space="preserve">508 Audit Findings - Return to Top link is not tagged as a link for assistive technology users </t>
-  </si>
-  <si>
-    <t xml:space="preserve">508 Audit Findings: Focus placement with assistive technology does not place the user at the top of the page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">508 Audit Findings: Invisible text is read with assistive technology when content is collapsed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">508 Audit Findings: The name, role and value of elements within the web application are not read by assistive technology programs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">508 Audit Findings - The state of the Expand and Collapsed function for the Here’s How You Know button is not read by assistive technology programs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">508 Audit Findings - Content is not tagged properly for assistive technology users </t>
-  </si>
-  <si>
-    <t xml:space="preserve">508 Audit - When the view port is set to a smaller size the tabbing order is illogical (508 Audit) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">508 Audit - Links are not correctly read by assistive technology programs- link should read as it appears visually on the page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">508  Audit -  Alternative text descriptions are insufficient for assistive technology users (508 Audit) VA Logo Footer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">508 Audit - On the home page, above the search box the words Search Small are read with assistive technology programs (508 Audit) </t>
-  </si>
-  <si>
-    <t>UAT 508 Audit -  When the main 'Menu' function is not read by assistive technology programs</t>
-  </si>
-  <si>
-    <t>508 Audit - On all pages of the application a bread crumb is used -A greater than sign is used to make a visual correlation of the path a user took to get to a specific page</t>
-  </si>
-  <si>
-    <t>Workaround (Only for Defects being deployed to Prod, even if None is specified)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">508 Audit Findings - 4 Links (FAQ,Contact Us, Help and eRevenue Resources)  are not tagged properly for assistive technology users. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">508 Audit Findings - The business solutions link at the bottom of the page to return to the home page is tagged as a list of one item 
-</t>
-  </si>
-  <si>
-    <t>TC2172</t>
-  </si>
-  <si>
-    <t>03/07/2018 02:00 PM EST</t>
-  </si>
-  <si>
-    <t>TC2820</t>
-  </si>
-  <si>
-    <t>June 18, 2018</t>
-  </si>
-  <si>
-    <t>TC3368</t>
-  </si>
-  <si>
-    <t>TC3367</t>
-  </si>
-  <si>
-    <t>04/16/2018 10:34 AM EST</t>
-  </si>
-  <si>
-    <t>05/15/2018 02:52 PM EST</t>
-  </si>
-  <si>
-    <t>05/07/2018 03:45 PM EST</t>
-  </si>
-  <si>
-    <t>05/15/2018 02:49 PM EST</t>
-  </si>
-  <si>
-    <t>04/16/2018 10:38 AM EST</t>
-  </si>
-  <si>
-    <t>05/15/2018 02:54 PM EST</t>
-  </si>
-  <si>
-    <t>04/23/2018 01:31 PM EST</t>
-  </si>
-  <si>
-    <t>05/15/2018 02:56 PM EST</t>
-  </si>
-  <si>
-    <t>04/16/2018 10:46 AM EST</t>
-  </si>
-  <si>
-    <t>05/15/2018 02:59 PM EST</t>
-  </si>
-  <si>
-    <t>04/16/2018 10:52 AM EST</t>
-  </si>
-  <si>
-    <t>05/15/2018 03:00 PM EST</t>
-  </si>
-  <si>
-    <t>04/16/2018 10:55 AM EST</t>
-  </si>
-  <si>
-    <t>05/15/2018 03:01 PM EST</t>
-  </si>
-  <si>
-    <t>05/08/2018 12:15 PM EST</t>
-  </si>
-  <si>
-    <t>05/15/2018 03:02 PM EST</t>
-  </si>
-  <si>
-    <t>05/02/2018 10:05 AM EST</t>
-  </si>
-  <si>
-    <t>05/15/2018 02:47 PM EST</t>
-  </si>
-  <si>
-    <t>04/16/2018 11:08 AM EST</t>
-  </si>
-  <si>
-    <t>05/15/2018 03:03 PM EST</t>
-  </si>
-  <si>
-    <t>05/15/2018 02:55 PM EST</t>
-  </si>
-  <si>
-    <t>06/01/2018 09:41 AM EST</t>
-  </si>
-  <si>
-    <t>06/05/2018 05:23 PM EST</t>
-  </si>
-  <si>
-    <t>06/14/2018 11:11 AM EST</t>
-  </si>
-  <si>
-    <t>05/15/2018 03:35 PM EST</t>
-  </si>
-  <si>
-    <t>06/01/2018 09:42 AM EST</t>
-  </si>
-  <si>
-    <t>05/18/2018 10:24 AM EST</t>
-  </si>
-  <si>
-    <t>05/15/2018 04:00 PM EST</t>
-  </si>
-  <si>
-    <t>06/01/2018 09:43 AM EST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/15/2018 03:55 PM EST </t>
-  </si>
-  <si>
-    <t>05/17/2018 02:54 PM EST</t>
-  </si>
-  <si>
-    <t>06/01/2018 04:25 PM EST</t>
-  </si>
-  <si>
-    <t>06/14/2018 11:12 AM EST</t>
+    <t>TC2362 (also occurs in TC2540)</t>
+  </si>
+  <si>
+    <t>TC2177 (also occurs in TC2287, TC2286)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,6 +587,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -1084,7 +792,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1273,32 +981,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <left style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1307,28 +1008,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1390,7 +1069,7 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
@@ -1421,13 +1100,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1445,13 +1118,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="35" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
@@ -1762,7 +1447,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1477,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Revision_History" displayName="Revision_History" ref="A3:D5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Revision_History" displayName="Revision_History" ref="A3:D6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4" headerRowCellStyle="Normal 2">
   <tableColumns count="4">
     <tableColumn id="1" name="Date" dataDxfId="3" dataCellStyle="Normal 2"/>
     <tableColumn id="2" name="Version" dataDxfId="2" dataCellStyle="Normal 2"/>
@@ -1879,23 +1564,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1931,23 +1599,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2126,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2141,28 +1792,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="A3" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
@@ -2201,28 +1852,28 @@
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
+      <c r="A17" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="A18" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -2260,7 +1911,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2276,12 +1927,12 @@
       <c r="A1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -2299,34 +1950,45 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="B5" s="10">
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="23">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -2357,1052 +2019,437 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.42578125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="11" style="21" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="74.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" style="21" customWidth="1"/>
-    <col min="10" max="10" width="61.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="6.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="11" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="60.42578125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="20" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.42578125" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="C2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="I12" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="19" t="s">
+      <c r="I13" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="20"/>
-    </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="I34" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="J34" s="24"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J34"/>
+  <autoFilter ref="A1:J14"/>
+  <sortState ref="A2:J13">
+    <sortCondition ref="A2:A13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>